--- a/doc/1_params.xlsx
+++ b/doc/1_params.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="185">
   <si>
     <t>cur_tf</t>
   </si>
@@ -717,6 +717,14 @@
   </si>
   <si>
     <t>subname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Necessary</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1049,20 +1057,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="A1:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1076,31 +1084,40 @@
         <v>74</v>
       </c>
       <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>173</v>
       </c>
       <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>174</v>
       </c>
       <c r="E4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>176</v>
       </c>
@@ -1111,15 +1128,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>175</v>
       </c>
       <c r="E6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>176</v>
       </c>
@@ -1130,15 +1150,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -1148,11 +1168,11 @@
       <c r="D9" t="s">
         <v>76</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -1162,11 +1182,11 @@
       <c r="D10" t="s">
         <v>76</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>69</v>
       </c>
@@ -1176,11 +1196,11 @@
       <c r="D11" t="s">
         <v>76</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -1190,30 +1210,30 @@
       <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>72</v>
       </c>
@@ -1223,60 +1243,63 @@
       <c r="D15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>65</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>166</v>
       </c>
       <c r="D19" t="s">
         <v>167</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>176</v>
       </c>
@@ -1287,25 +1310,25 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1323,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/doc/1_params.xlsx
+++ b/doc/1_params.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
   <si>
     <t>cur_tf</t>
   </si>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1221,6 +1221,9 @@
       <c r="D13" t="s">
         <v>76</v>
       </c>
+      <c r="E13" t="s">
+        <v>183</v>
+      </c>
       <c r="F13" t="s">
         <v>164</v>
       </c>
@@ -1283,6 +1286,9 @@
       </c>
       <c r="D19" t="s">
         <v>167</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
       </c>
       <c r="F19" t="s">
         <v>170</v>
